--- a/Conversion.xlsx
+++ b/Conversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>m</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Toaleta 2 szer</t>
+  </si>
+  <si>
+    <t>Drzwi na zaplecze</t>
+  </si>
+  <si>
+    <t>Sciana po prawej od drzwi na zaplecze</t>
+  </si>
+  <si>
+    <t>Drzwi wejsciowe</t>
+  </si>
+  <si>
+    <t>Kant skosu</t>
+  </si>
+  <si>
+    <t>Glebokosc dzrzwi na zaplacze</t>
   </si>
 </sst>
 </file>
@@ -394,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
   </cols>
@@ -458,11 +473,11 @@
         <v>4.5</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C9" si="0">B4*1000</f>
+        <f t="shared" ref="C4:C11" si="0">B4*1000</f>
         <v>4500</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="1">C4/50</f>
+        <f t="shared" ref="D4:D11" si="1">C4/50</f>
         <v>90</v>
       </c>
     </row>
@@ -544,6 +559,229 @@
       <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:C25" si="2">B12*1000</f>
+        <v>1560</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D25" si="3">C12/50</f>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
